--- a/Quick Ship Router/bin/Debug/Production traveler.xlsx
+++ b/Quick Ship Router/bin/Debug/Production traveler.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gage Omega\Programming\Traveler Unraveler\Traveler Unraveler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gage Omega\Programming\Quick Ship Router\Quick Ship Router\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,9 +95,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Project :</t>
-  </si>
-  <si>
     <t>REV 7-16-2012</t>
   </si>
   <si>
@@ -261,13 +258,16 @@
   </si>
   <si>
     <t>Material Used</t>
+  </si>
+  <si>
+    <t>order :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,14 +323,6 @@
       <b/>
       <sz val="54"/>
       <color rgb="FFA54200"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -917,7 +909,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -933,11 +925,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -970,13 +962,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -985,10 +974,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1301,7 +1293,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:N11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,56 +1311,56 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-    </row>
-    <row r="2" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+    </row>
+    <row r="2" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="75"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="89"/>
+      <c r="N2" s="88"/>
     </row>
     <row r="3" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1384,7 +1376,7 @@
     </row>
     <row r="4" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="74"/>
@@ -1402,7 +1394,7 @@
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="74"/>
@@ -1420,7 +1412,7 @@
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="79"/>
@@ -1436,7 +1428,7 @@
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="74"/>
@@ -1470,21 +1462,21 @@
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="70"/>
       <c r="B9" s="71"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="70"/>
       <c r="F9" s="12"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="69"/>
       <c r="C10" s="74"/>
@@ -1501,7 +1493,7 @@
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" s="74"/>
@@ -1511,7 +1503,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="K11" s="76"/>
       <c r="L11" s="76"/>
@@ -1539,11 +1531,11 @@
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
@@ -1716,7 +1708,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
@@ -1736,12 +1728,12 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N23" s="17"/>
     </row>
@@ -1758,7 +1750,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
@@ -1798,7 +1790,7 @@
         <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="7"/>
       <c r="J27" s="18"/>
@@ -1809,11 +1801,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C1:N1"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I1:N1"/>
     <mergeCell ref="I9:N9"/>
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="C3:D3"/>
@@ -1868,7 +1860,7 @@
   <sheetData>
     <row r="1" spans="1:48" ht="69" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
@@ -1879,12 +1871,12 @@
     </row>
     <row r="2" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="23">
         <v>1</v>
@@ -1894,7 +1886,7 @@
     </row>
     <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -1902,17 +1894,17 @@
         <v>42695</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
@@ -1923,7 +1915,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R5" s="14"/>
       <c r="S5" s="15"/>
@@ -1940,32 +1932,32 @@
       <c r="AD5" s="14"/>
       <c r="AE5" s="15"/>
       <c r="AF5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG5" s="14"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="15"/>
       <c r="AL5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM5" s="14"/>
       <c r="AN5" s="15"/>
       <c r="AO5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="15"/>
       <c r="AR5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS5" s="14"/>
       <c r="AT5" s="15"/>
       <c r="AU5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV5" s="24"/>
     </row>
@@ -1976,42 +1968,42 @@
       <c r="C6" s="12"/>
       <c r="D6" s="17"/>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="17"/>
       <c r="H6" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="17"/>
       <c r="K6" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="45"/>
       <c r="M6" s="60"/>
       <c r="N6" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6" s="45"/>
       <c r="P6" s="60"/>
       <c r="Q6" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R6" s="45"/>
       <c r="S6" s="60"/>
       <c r="T6" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U6" s="45"/>
       <c r="V6" s="60"/>
       <c r="W6" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X6" s="45"/>
       <c r="Y6" s="60"/>
       <c r="Z6" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA6" s="45"/>
       <c r="AB6" s="60"/>
@@ -2034,144 +2026,144 @@
       <c r="AS6" s="12"/>
       <c r="AT6" s="17"/>
       <c r="AU6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV6" s="33" t="s">
         <v>40</v>
-      </c>
-      <c r="AV6" s="33" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="U7" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="V7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="19" t="s">
+      <c r="Y7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA7" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="R7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA7" s="61" t="s">
-        <v>51</v>
-      </c>
       <c r="AB7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC7" s="18"/>
       <c r="AD7" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF7" s="18"/>
       <c r="AG7" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AK7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AL7" s="18"/>
       <c r="AM7" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO7" s="18"/>
       <c r="AP7" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR7" s="18"/>
       <c r="AS7" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AT7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AU7" s="11"/>
       <c r="AV7" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="53">
         <v>72</v>
@@ -2301,7 +2293,7 @@
     </row>
     <row r="10" spans="1:48" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="46">
         <v>0.115</v>
@@ -2383,7 +2375,7 @@
     </row>
     <row r="11" spans="1:48" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="46">
         <f>($B$3*B8*B10)</f>
@@ -2536,7 +2528,7 @@
     </row>
     <row r="13" spans="1:48" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="46">
         <v>0</v>
@@ -2700,7 +2692,7 @@
     </row>
     <row r="15" spans="1:48" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="55">
         <f>B13/$A$14</f>
@@ -2800,7 +2792,7 @@
     </row>
     <row r="16" spans="1:48" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="46">
         <f>($B$3*B8*B15)</f>
@@ -2953,7 +2945,7 @@
     </row>
     <row r="18" spans="1:48" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="46">
         <v>0</v>
@@ -3035,7 +3027,7 @@
     </row>
     <row r="19" spans="1:48" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="46">
         <f>($B$3*B8*B18)</f>
@@ -3188,7 +3180,7 @@
     </row>
     <row r="21" spans="1:48" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="46">
         <v>0</v>
@@ -3258,7 +3250,7 @@
     </row>
     <row r="22" spans="1:48" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="48">
         <f>$B$3*B8*B21</f>
@@ -3433,16 +3425,16 @@
     </row>
     <row r="25" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU25" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:48" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="63"/>
@@ -3460,7 +3452,7 @@
     </row>
     <row r="29" spans="1:48" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A29" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
@@ -3468,7 +3460,7 @@
     </row>
     <row r="31" spans="1:48" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A31" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
